--- a/2020项目对接/08-26 安心百万医疗/安心数据回传字段1130.xlsx
+++ b/2020项目对接/08-26 安心百万医疗/安心数据回传字段1130.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\8-26 安心百万医疗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\08-26 安心百万医疗\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" tabRatio="903" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="咨询类-服务完成推送数据" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="225">
   <si>
     <t>安心接口描述</t>
   </si>
@@ -866,6 +866,10 @@
   </si>
   <si>
     <t>回访节点服务操作时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线咨询</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1806,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1916,7 +1920,7 @@
         <v>132</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.5" thickBot="1">
@@ -2627,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
